--- a/excelFiles/TestData.xlsx
+++ b/excelFiles/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvin.twano\Documents\GitHub\AutomationProjectTemplate\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lester.mendoza\Documents\GitHub\CollectionsAutomation\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC04A6-5E28-4D94-A212-5EE452EA535F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="795" windowWidth="28575" windowHeight="14805" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="795" windowWidth="28575" windowHeight="14805" tabRatio="760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE Login Credentials" sheetId="16" r:id="rId1"/>
+    <sheet name="Date" sheetId="17" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -55,12 +55,15 @@
   </si>
   <si>
     <t>twano</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,11 +380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA23FA-A2CD-4DF3-BDB9-ECA0D67267BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,4 +425,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excelFiles/TestData.xlsx
+++ b/excelFiles/TestData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvin.twano\Documents\GitHub\AutomationProjectTemplate\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexie.silva\Documents\GitHub\CollectionsAutomation\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC04A6-5E28-4D94-A212-5EE452EA535F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="795" windowWidth="28575" windowHeight="14805" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="795" windowWidth="17655" windowHeight="4320" tabRatio="760"/>
   </bookViews>
   <sheets>
-    <sheet name="SAMPLE Login Credentials" sheetId="16" r:id="rId1"/>
+    <sheet name="Disputes" sheetId="16" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,37 +30,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Username</t>
+    <t>Reference Number</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>Invoice Number</t>
   </si>
   <si>
-    <t>FirstName</t>
+    <t>Amount</t>
   </si>
   <si>
-    <t>LastName</t>
+    <t>Remarks</t>
   </si>
   <si>
-    <t>Atwano</t>
-  </si>
-  <si>
-    <t>TestPassword</t>
-  </si>
-  <si>
-    <t>arvin</t>
-  </si>
-  <si>
-    <t>twano</t>
+    <t>Test Ignore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +59,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,49 +382,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA23FA-A2CD-4DF3-BDB9-ECA0D67267BB}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>124578963</v>
+      </c>
+      <c r="C2">
+        <v>986532147</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelFiles/TestData.xlsx
+++ b/excelFiles/TestData.xlsx
@@ -5,15 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lester.mendoza\Documents\GitHub\CollectionsAutomation\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexie.silva\Documents\GitHub\CollectionsAutomation\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="225" yWindow="795" windowWidth="28575" windowHeight="14805" tabRatio="760" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="795" windowWidth="17655" windowHeight="4320" tabRatio="760"/>
   </bookViews>
   <sheets>
-    <sheet name="SAMPLE Login Credentials" sheetId="16" r:id="rId1"/>
-    <sheet name="Date" sheetId="17" r:id="rId2"/>
+    <sheet name="Disputes" sheetId="16" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,40 +30,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Username</t>
+    <t>Reference Number</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>Invoice Number</t>
   </si>
   <si>
-    <t>FirstName</t>
+    <t>Amount</t>
   </si>
   <si>
-    <t>LastName</t>
+    <t>Remarks</t>
   </si>
   <si>
-    <t>Atwano</t>
-  </si>
-  <si>
-    <t>TestPassword</t>
-  </si>
-  <si>
-    <t>arvin</t>
-  </si>
-  <si>
-    <t>twano</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Test Ignore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +59,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,7 +95,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,76 +383,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>124578963</v>
+      </c>
+      <c r="C2">
+        <v>986532147</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>